--- a/3-Design/Low Level Design/Functions.xlsx
+++ b/3-Design/Low Level Design/Functions.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Foodies\3-Design\Low Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFA2259-F4D7-4325-9527-FA563126F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>F_ID</t>
   </si>
@@ -28,12 +40,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>F_Fuc_U_Reg_001</t>
-  </si>
-  <si>
-    <t>UserRegistration()</t>
   </si>
   <si>
     <t>This function takes the user info to create an account in foodies app and call validateUserInfo() function 
@@ -41,278 +47,226 @@
 otherwise an error message will appear regarding each field</t>
   </si>
   <si>
-    <t xml:space="preserve">-Full Name
+    <t>validateUserInfo()</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>searchRes()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function will take the restaurant name from user and checks this value in the database
+ and return the matched restaurant otherwise
+a pop up message saying “Restaurant not found” will appear.
+</t>
+  </si>
+  <si>
+    <t>-Restaurant name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   RestaurantName/"Restaurant not found"</t>
+  </si>
+  <si>
+    <t>selectRes()</t>
+  </si>
+  <si>
+    <t>this function takes the restaurant index and navigates the user to restaurant menu page</t>
+  </si>
+  <si>
+    <t>- restaurant index</t>
+  </si>
+  <si>
+    <t>Restaurant menu</t>
+  </si>
+  <si>
+    <t>selectMeal()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this function takes meal index and counter </t>
+  </si>
+  <si>
+    <t>-Meal name
+-Meal counter
+-Total Price</t>
+  </si>
+  <si>
+    <t>confirmOrder()</t>
+  </si>
+  <si>
+    <t>This function takes the order summary and send it to the database</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>This function reads the offers and loyalty points of the user.</t>
+  </si>
+  <si>
+    <t>-Username</t>
+  </si>
+  <si>
+    <t>UseLoyaltyPoints()</t>
+  </si>
+  <si>
+    <t>This function uses the user's loyalty points to apply a dicount.</t>
+  </si>
+  <si>
+    <t>AddRestraunt()</t>
+  </si>
+  <si>
+    <t>This function allows the admin to add a new restraunt to the database</t>
+  </si>
+  <si>
+    <t>-Restaurant name
+-Logo</t>
+  </si>
+  <si>
+    <t>This function allows the admin to add a new menu item to the database</t>
+  </si>
+  <si>
+    <t>AddOffer()</t>
+  </si>
+  <si>
+    <t>This function allows the admin to add a new offer to the database</t>
+  </si>
+  <si>
+    <t>Parameters(inputs)</t>
+  </si>
+  <si>
+    <t>Return Value(output)</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Food web app</t>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Registration()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 -user name
 -User mail
 -Password
 -Confirm Password
--Address
 -Phone Number
 </t>
   </si>
   <si>
-    <t>F_Fuc_U_ValReg_002</t>
-  </si>
-  <si>
-    <t>validateUserInfo()</t>
+    <t>Login()</t>
+  </si>
+  <si>
+    <t>Email
+Password</t>
+  </si>
+  <si>
+    <t>this function will take email and password and call login()Function
+ if the info is valid the user will get navigate to the homepage
+otherwise an error message will appear “Invalid email or password”</t>
   </si>
   <si>
     <t xml:space="preserve">this function validates the user info in the registration form according to 
-the mentioned criteria in the Requirement F_REQ_U_Reg_3.1.2
+the mentioned criteria
 and check this info . if the info is valid the function will save this info in the database
  and return true else will return false  
 </t>
   </si>
   <si>
-    <t>True/False</t>
-  </si>
-  <si>
-    <t>F_Fuc_U_sig_003</t>
-  </si>
-  <si>
-    <t>UserSignIn()</t>
-  </si>
-  <si>
-    <t>this function will take the username and password and call validateSignIn()Function
- if the info is valid the user will get navigate to the homepage
-otherwise an error message will appear “Invalid username or password”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-user name
--Password
-</t>
-  </si>
-  <si>
-    <t>F_Fuc_U_ValSig_004</t>
-  </si>
-  <si>
-    <t>validateSignIn()</t>
+    <t>validatelogin()</t>
   </si>
   <si>
     <t xml:space="preserve">
 this function validates the user info in the SignIn form according to 
 the mentioned criteria in the Requirement 
-F_REQ_U_sig_3.2.3
 and to check thier existence in database. if the info is valid the function will return true else return false
 </t>
   </si>
   <si>
-    <t xml:space="preserve">F_Func_U_sear_005
-</t>
-  </si>
-  <si>
-    <t>searchRes()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this function will take the restaurant name from user and checks this value in the database
- and return the matched restaurant otherwise
-a pop up message saying “Restaurant not found” will appear.
-</t>
-  </si>
-  <si>
-    <t>-Restaurant name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   RestaurantName/"Restaurant not found"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_U_sel_006
-</t>
-  </si>
-  <si>
-    <t>selectRes()</t>
-  </si>
-  <si>
-    <t>this function takes the restaurant index and navigates the user to restaurant menu page</t>
-  </si>
-  <si>
-    <t>- restaurant index</t>
-  </si>
-  <si>
-    <t>Restaurant menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_U_meal_007
-</t>
-  </si>
-  <si>
-    <t>selectMeal()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this function takes meal index and counter </t>
-  </si>
-  <si>
-    <t>-meal index
--meal counter
--DiscountValue
--LoyaltyPoints</t>
-  </si>
-  <si>
-    <t>-Meal name
--Meal counter
+    <t>AddMenuitem()</t>
+  </si>
+  <si>
+    <t>retaurants name
+-item</t>
+  </si>
+  <si>
+    <t>Offer code
+-Discount Amount
+description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkbox </t>
+  </si>
+  <si>
+    <t>view loyality point()</t>
+  </si>
+  <si>
+    <t>loyality point</t>
+  </si>
+  <si>
+    <t>View delivery address ( )</t>
+  </si>
+  <si>
+    <t>This function view delivery address.</t>
+  </si>
+  <si>
+    <t>meal index
+-meal counter</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>meal name
+-quantity
 -Total Price</t>
   </si>
   <si>
-    <t xml:space="preserve">F_Func_U_conf_008
-</t>
-  </si>
-  <si>
-    <t>confirmOrder()</t>
-  </si>
-  <si>
-    <t>This function takes the order summary and send it to the database</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_U_offer_009
-</t>
-  </si>
-  <si>
-    <t>ViewOffers()</t>
-  </si>
-  <si>
-    <t>This function reads the offers and loyalty points of the user.</t>
-  </si>
-  <si>
-    <t>-Username</t>
-  </si>
-  <si>
-    <t>-LoyaltyPoints
--Offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_U_SelOffer_010
-</t>
-  </si>
-  <si>
-    <t>UseOffer()</t>
-  </si>
-  <si>
-    <t>This functions selects a specific offer to apply a discount.</t>
-  </si>
-  <si>
-    <t>-DiscountAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_U_SelLoyaltyPoints_011
-</t>
-  </si>
-  <si>
-    <t>UseLoyaltyPoints()</t>
-  </si>
-  <si>
-    <t>This function uses the user's loyalty points to apply a dicount.</t>
-  </si>
-  <si>
-    <t>-LoyaltyPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_A_AddUser_012
-</t>
-  </si>
-  <si>
-    <t>AddUser()</t>
-  </si>
-  <si>
-    <t>This function takes the user info to allow an admin to create an account in foodies app and call validateUserInfo() function 
-if the info is valid a pop up message should appear saying “Account created successfully, welcome to Foodies!” 
-otherwise an error message will appear regarding each field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_A_AddRest_013
-</t>
-  </si>
-  <si>
-    <t>AddRestraunt()</t>
-  </si>
-  <si>
-    <t>This function allows the admin to add a new restraunt to the database</t>
-  </si>
-  <si>
-    <t>-Restaurant name
--Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_A_AddMenu_014
-</t>
-  </si>
-  <si>
-    <t>AddMenu()</t>
-  </si>
-  <si>
-    <t>This function allows the admin to add a new menu item to the database</t>
-  </si>
-  <si>
-    <t>-Menu image
--Item Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_A_AddOffer_015
-</t>
-  </si>
-  <si>
-    <t>AddOffer()</t>
-  </si>
-  <si>
-    <t>This function allows the admin to add a new offer to the database</t>
-  </si>
-  <si>
-    <t>-Offer code
--Discount Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_Func_A_AddAdmin_016
-</t>
-  </si>
-  <si>
-    <t>AddAdmin()</t>
-  </si>
-  <si>
-    <t>This function allows the admin to add another admin in foodies app and call validateUserInfo() function 
-if the info is valid a pop up message should appear saying “Account created successfully, welcome to Foodies!” 
-otherwise an error message will appear regarding each field</t>
-  </si>
-  <si>
-    <t>Parameters(inputs)</t>
-  </si>
-  <si>
-    <t>Return Value(output)</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Food web app</t>
-  </si>
-  <si>
-    <t>Func</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>restaurant data()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will take name and discriotion </t>
+  </si>
+  <si>
+    <t>name , disc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take price and quantity and disc for item </t>
+  </si>
+  <si>
+    <t>item data ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity and item </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,8 +314,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +352,18 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -594,8 +566,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,7 +580,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,18 +595,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,6 +603,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,23 +622,242 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -701,210 +892,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -919,14 +906,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
-  <autoFilter ref="A2:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:E18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="F_ID" dataDxfId="9"/>
-    <tableColumn id="2" name="FunctionName" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Parameters(inputs)" dataDxfId="6"/>
-    <tableColumn id="5" name="Return Value(output)" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="F_ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FunctionName" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Parameters(inputs)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Return Value(output)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1129,27 +1116,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="107.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="72.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1178,21 +1165,21 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:27" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>69</v>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1217,20 +1204,18 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="196.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:27" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="20"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1254,21 +1239,19 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="319.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
+    <row r="4" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1293,20 +1276,18 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="196.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8"/>
+    <row r="5" spans="1:27" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1330,21 +1311,19 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
+    <row r="6" spans="1:27" ht="306" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1369,21 +1348,19 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="246" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:27" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1408,235 +1385,211 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="98.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E13" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="98.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="49.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="319.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="295.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
